--- a/espProject/TestData/EmpData.xlsx
+++ b/espProject/TestData/EmpData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Nextgen" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="20">
   <si>
     <t>Emp First Name</t>
   </si>
@@ -62,12 +62,6 @@
     <t>Karnataka</t>
   </si>
   <si>
-    <t>N78962</t>
-  </si>
-  <si>
-    <t>naman.singh@nxtgen.com</t>
-  </si>
-  <si>
     <t>sal</t>
   </si>
   <si>
@@ -75,6 +69,18 @@
   </si>
   <si>
     <t>sar</t>
+  </si>
+  <si>
+    <t>Joining Date</t>
+  </si>
+  <si>
+    <t>naman.singh</t>
+  </si>
+  <si>
+    <t>Group Joining date</t>
+  </si>
+  <si>
+    <t>NX8965</t>
   </si>
 </sst>
 </file>
@@ -441,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,13 +459,15 @@
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,25 +481,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -504,28 +518,34 @@
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1" display="naman.singh@nxtgen.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -533,21 +553,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,25 +581,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -587,33 +613,39 @@
         <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>33970</v>
+        <v>32905</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1" display="naman.singh@nxtgen.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -621,18 +653,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,25 +682,31 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -672,33 +714,39 @@
         <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>33970</v>
+        <v>32905</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId1" display="naman.singh@nxtgen.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -706,64 +754,494 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32905</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="naman.singh@nxtgen.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32905</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="naman.singh@nxtgen.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32905</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="naman.singh@nxtgen.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32905</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="naman.singh@nxtgen.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32905</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="naman.singh@nxtgen.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/espProject/TestData/EmpData.xlsx
+++ b/espProject/TestData/EmpData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Nextgen" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="ION" sheetId="6" r:id="rId6"/>
     <sheet name="Moonraft" sheetId="7" r:id="rId7"/>
     <sheet name="Toyota" sheetId="8" r:id="rId8"/>
+    <sheet name="EE" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="23">
   <si>
     <t>Emp First Name</t>
   </si>
@@ -81,6 +82,15 @@
   </si>
   <si>
     <t>NX8965</t>
+  </si>
+  <si>
+    <t>Pradip</t>
+  </si>
+  <si>
+    <t>Np896</t>
+  </si>
+  <si>
+    <t>pradip.singh</t>
   </si>
 </sst>
 </file>
@@ -655,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,9 +1155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1244,4 +1252,102 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2">
+        <v>32905</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43983</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="naman.singh@nxtgen.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/espProject/TestData/EmpData.xlsx
+++ b/espProject/TestData/EmpData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Nextgen" sheetId="1" r:id="rId1"/>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,6 +574,7 @@
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1258,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/espProject/TestData/EmpData.xlsx
+++ b/espProject/TestData/EmpData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Nextgen" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="Moonraft" sheetId="7" r:id="rId7"/>
     <sheet name="Toyota" sheetId="8" r:id="rId8"/>
     <sheet name="EE" sheetId="9" r:id="rId9"/>
+    <sheet name="Title values" sheetId="10" r:id="rId10"/>
+    <sheet name="Error Messages" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="69">
   <si>
     <t>Emp First Name</t>
   </si>
@@ -54,12 +56,6 @@
     <t>Reporting Manager</t>
   </si>
   <si>
-    <t>Naman</t>
-  </si>
-  <si>
-    <t>Singh</t>
-  </si>
-  <si>
     <t>Karnataka</t>
   </si>
   <si>
@@ -75,29 +71,173 @@
     <t>Joining Date</t>
   </si>
   <si>
-    <t>naman.singh</t>
-  </si>
-  <si>
     <t>Group Joining date</t>
   </si>
   <si>
-    <t>NX8965</t>
-  </si>
-  <si>
-    <t>Pradip</t>
-  </si>
-  <si>
-    <t>Np896</t>
-  </si>
-  <si>
-    <t>pradip.singh</t>
+    <t>Sarat</t>
+  </si>
+  <si>
+    <t>sarat.test</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Lokesh</t>
+  </si>
+  <si>
+    <t>Karan</t>
+  </si>
+  <si>
+    <t>karan.test</t>
+  </si>
+  <si>
+    <t>EM851101</t>
+  </si>
+  <si>
+    <t>kumud.test</t>
+  </si>
+  <si>
+    <t>Ganga</t>
+  </si>
+  <si>
+    <t>N886541</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Jr.</t>
+  </si>
+  <si>
+    <t>Col.</t>
+  </si>
+  <si>
+    <t>Lt.Col.</t>
+  </si>
+  <si>
+    <t>Brig.</t>
+  </si>
+  <si>
+    <t>Maj</t>
+  </si>
+  <si>
+    <t>Prof.</t>
+  </si>
+  <si>
+    <t>Capt.</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Lt.CDR.</t>
+  </si>
+  <si>
+    <t>MUJ7896</t>
+  </si>
+  <si>
+    <t>rakesh.test</t>
+  </si>
+  <si>
+    <t>Mahesh</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Education Details</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Legal Entity</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Employment Type</t>
+  </si>
+  <si>
+    <t>Employment Status</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Reporting/Hiring Manager</t>
+  </si>
+  <si>
+    <t>FT/PT Indicator</t>
+  </si>
+  <si>
+    <t>First Name cannot be empty</t>
+  </si>
+  <si>
+    <t>Last Name cannot be empty</t>
+  </si>
+  <si>
+    <t>Education Details cannot be empty</t>
+  </si>
+  <si>
+    <t>Country cannot be empty</t>
+  </si>
+  <si>
+    <t>Legal Entity cannot be empty</t>
+  </si>
+  <si>
+    <t>Location cannot be empty</t>
+  </si>
+  <si>
+    <t>Joining Date cannot be empty</t>
+  </si>
+  <si>
+    <t>Employee ID cannot be empty</t>
+  </si>
+  <si>
+    <t>Email Id cannot be empty</t>
+  </si>
+  <si>
+    <t>Employment Type cannot be empty</t>
+  </si>
+  <si>
+    <t>Employment Status cannot be empty</t>
+  </si>
+  <si>
+    <t>Department cannot be empty</t>
+  </si>
+  <si>
+    <t>Designation cannot be empty</t>
+  </si>
+  <si>
+    <t>Grade cannot be empty</t>
+  </si>
+  <si>
+    <t>Reporting/Hiring Manager cannot be empty</t>
+  </si>
+  <si>
+    <t>FT/PT Indicator cannot be empty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +252,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDC3545"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -150,11 +310,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -459,15 +624,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.7109375" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
@@ -491,10 +654,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -517,40 +680,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>32905</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44007</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44007</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
-        <v>43983</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43983</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -561,12 +724,247 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,6 +974,8 @@
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -592,10 +992,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -618,40 +1018,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>32905</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44007</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44007</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
-        <v>43983</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43983</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -667,15 +1067,19 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -693,10 +1097,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -719,40 +1123,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>32905</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43831</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43831</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
-        <v>43983</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43983</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +1172,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,10 +1191,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -813,40 +1217,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>32905</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>43983</v>
+        <v>44007</v>
       </c>
       <c r="F2" s="2">
-        <v>43983</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>44007</v>
+      </c>
+      <c r="G2" s="1">
+        <v>58962</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +1266,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -886,10 +1290,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -912,40 +1316,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>32905</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>43983</v>
+        <v>44007</v>
       </c>
       <c r="F2" s="2">
-        <v>43983</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>44007</v>
+      </c>
+      <c r="G2" s="1">
+        <v>58962</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -961,7 +1365,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,10 +1387,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1009,40 +1413,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>32905</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>43983</v>
+        <v>44007</v>
       </c>
       <c r="F2" s="2">
-        <v>43983</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>44007</v>
+      </c>
+      <c r="G2" s="1">
+        <v>58962</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1058,7 +1462,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,10 +1486,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1108,40 +1512,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>32905</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>43983</v>
+        <v>44037</v>
       </c>
       <c r="F2" s="2">
-        <v>43983</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>44037</v>
+      </c>
+      <c r="G2" s="1">
+        <v>58962</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +1560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1185,10 +1591,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1211,40 +1617,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>32905</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>43983</v>
+        <v>44037</v>
       </c>
       <c r="F2" s="2">
-        <v>43983</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>44037</v>
+      </c>
+      <c r="G2" s="1">
+        <v>58962</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1260,13 +1666,19 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1283,10 +1695,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
@@ -1309,40 +1721,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
         <v>32905</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44037</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44037</v>
+      </c>
+      <c r="G2" s="1">
+        <v>58962</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
-        <v>43983</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43983</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/espProject/TestData/EmpData.xlsx
+++ b/espProject/TestData/EmpData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Nextgen" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="EE" sheetId="9" r:id="rId9"/>
     <sheet name="Title values" sheetId="10" r:id="rId10"/>
     <sheet name="Error Messages" sheetId="11" r:id="rId11"/>
+    <sheet name="Hire Summary Details" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="70">
   <si>
     <t>Emp First Name</t>
   </si>
@@ -231,6 +232,9 @@
   </si>
   <si>
     <t>FT/PT Indicator cannot be empty</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
   </si>
 </sst>
 </file>
@@ -812,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,6 +960,33 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1">
+        <v>9681317650</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/espProject/TestData/EmpData.xlsx
+++ b/espProject/TestData/EmpData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="851" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Nextgen" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="Title values" sheetId="10" r:id="rId10"/>
     <sheet name="Error Messages" sheetId="11" r:id="rId11"/>
     <sheet name="Hire Summary Details" sheetId="12" r:id="rId12"/>
+    <sheet name="EmergencyContactDetails" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
   <si>
     <t>Emp First Name</t>
   </si>
@@ -87,15 +88,6 @@
     <t>Lokesh</t>
   </si>
   <si>
-    <t>Karan</t>
-  </si>
-  <si>
-    <t>karan.test</t>
-  </si>
-  <si>
-    <t>EM851101</t>
-  </si>
-  <si>
     <t>kumud.test</t>
   </si>
   <si>
@@ -235,6 +227,54 @@
   </si>
   <si>
     <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>karan.test@gmail.com</t>
+  </si>
+  <si>
+    <t>Sadan</t>
+  </si>
+  <si>
+    <t>Contact Name</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Contact Email</t>
+  </si>
+  <si>
+    <t>Sourav</t>
+  </si>
+  <si>
+    <t>sourav@gmail.com</t>
+  </si>
+  <si>
+    <t>"9574621012"</t>
+  </si>
+  <si>
+    <t>EM78962</t>
+  </si>
+  <si>
+    <t>Madan</t>
+  </si>
+  <si>
+    <t>madan.test</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>"313145896472"</t>
+  </si>
+  <si>
+    <t>Aaadhaar Number</t>
+  </si>
+  <si>
+    <t>"214589630124"</t>
+  </si>
+  <si>
+    <t>Depedent DOB</t>
   </si>
 </sst>
 </file>
@@ -286,7 +326,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -309,12 +349,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -324,6 +375,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -684,7 +738,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -702,10 +756,10 @@
         <v>44007</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -743,67 +797,67 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -831,50 +885,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -882,7 +936,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +944,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -898,23 +952,23 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -922,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -930,31 +984,31 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -965,37 +1019,94 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1">
+        <v>9681317650</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
-      <c r="B1">
-        <v>9681317650</v>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,12 +1115,16 @@
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" customWidth="1"/>
     <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1046,10 +1161,19 @@
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -1067,10 +1191,10 @@
         <v>44007</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -1083,6 +1207,15 @@
       </c>
       <c r="L2" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="9">
+        <v>38749</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1287,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -1172,10 +1305,10 @@
         <v>43831</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -1396,7 +1529,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,7 +1725,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1781,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -1666,7 +1799,7 @@
         <v>44037</v>
       </c>
       <c r="G2" s="1">
-        <v>58962</v>
+        <v>12578</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>17</v>

--- a/espProject/TestData/EmpData.xlsx
+++ b/espProject/TestData/EmpData.xlsx
@@ -1106,13 +1106,15 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
     <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
